--- a/Work/Data/countries.xlsx
+++ b/Work/Data/countries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,33 +436,133 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>country_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Страна</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Рейтинг</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Добыча</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Страна</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Congo</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Equatorial Guinea</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IR Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Libya</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
       </c>
     </row>
   </sheetData>
